--- a/evaluation/results/isolation_forest/augmented/shift_2/split_2/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/shift_2/split_2/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.7378277153558053</v>
+        <v>0.6451310861423221</v>
       </c>
       <c r="C2">
-        <v>0.896875</v>
+        <v>0.589803012746234</v>
       </c>
       <c r="D2">
-        <v>0.5374531835205992</v>
+        <v>0.9531835205992509</v>
       </c>
       <c r="E2">
-        <v>0.6721311475409836</v>
+        <v>0.7287043664996421</v>
       </c>
       <c r="F2">
-        <v>0.5842833876221498</v>
+        <v>0.8486162054018006</v>
       </c>
       <c r="G2">
-        <v>0.5458668617410388</v>
+        <v>0.9311193977344684</v>
       </c>
       <c r="H2">
-        <v>0.7378277153558053</v>
+        <v>0.8142998919889464</v>
       </c>
       <c r="I2">
-        <v>287</v>
+        <v>509</v>
       </c>
       <c r="J2">
-        <v>33</v>
+        <v>354</v>
       </c>
       <c r="K2">
-        <v>501</v>
+        <v>180</v>
       </c>
       <c r="L2">
-        <v>247</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.6697860962566845</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="C2">
-        <v>0.9382022471910112</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="D2">
-        <v>0.781591263650546</v>
+        <v>0.4871447902571042</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.896875</v>
+        <v>0.589803012746234</v>
       </c>
       <c r="C3">
-        <v>0.5374531835205992</v>
+        <v>0.9531835205992509</v>
       </c>
       <c r="D3">
-        <v>0.6721311475409836</v>
+        <v>0.7287043664996421</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.7378277153558053</v>
+        <v>0.6451310861423221</v>
       </c>
       <c r="C4">
-        <v>0.7378277153558053</v>
+        <v>0.6451310861423221</v>
       </c>
       <c r="D4">
-        <v>0.7378277153558053</v>
+        <v>0.6451310861423221</v>
       </c>
       <c r="E4">
-        <v>0.7378277153558053</v>
+        <v>0.6451310861423221</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.7833305481283422</v>
+        <v>0.7339258966170195</v>
       </c>
       <c r="C5">
-        <v>0.7378277153558053</v>
+        <v>0.6451310861423221</v>
       </c>
       <c r="D5">
-        <v>0.7268612055957648</v>
+        <v>0.6079245783783731</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.7833305481283422</v>
+        <v>0.7339258966170196</v>
       </c>
       <c r="C6">
-        <v>0.7378277153558053</v>
+        <v>0.6451310861423221</v>
       </c>
       <c r="D6">
-        <v>0.7268612055957648</v>
+        <v>0.6079245783783732</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>501</v>
+        <v>180</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>287</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
